--- a/Hasil Pengujian/Hasil Pengujian Fix.xlsx
+++ b/Hasil Pengujian/Hasil Pengujian Fix.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ekstensi\Tugas-Akhir\Hasil Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{925EDE4A-5CA0-44C2-93E1-D6C9D271690C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C121F86A-C81A-4FA1-8003-2CB693A2DB9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7380" activeTab="1" xr2:uid="{AD2C299A-F8F4-4A0C-B103-4AC92E4E8D8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7380" activeTab="4" xr2:uid="{AD2C299A-F8F4-4A0C-B103-4AC92E4E8D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="SVM" sheetId="1" r:id="rId1"/>
     <sheet name="KNN" sheetId="2" r:id="rId2"/>
     <sheet name="Perbandingan" sheetId="3" r:id="rId3"/>
+    <sheet name="Persentase SVM" sheetId="4" r:id="rId4"/>
+    <sheet name="Perentase KNN" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>K</t>
   </si>
@@ -55,12 +57,18 @@
   <si>
     <t>KNN</t>
   </si>
+  <si>
+    <t>Positif</t>
+  </si>
+  <si>
+    <t>Negatif</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +90,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,11 +124,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -127,10 +143,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2599,6 +2617,1259 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tanggapan Mahasiswa Terhadap Layanan Kemahasiswaan Telkom University Menggunakan SVM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Persentase SVM'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Persentase SVM'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Asrama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kesehatan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asuransi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beasiswa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kegiatan Mahasiswa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Persentase SVM'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6734</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25ED-4211-BE84-4FD0FE0F1464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Persentase SVM'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negatif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Persentase SVM'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Asrama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kesehatan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asuransi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beasiswa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kegiatan Mahasiswa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Persentase SVM'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3266</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-25ED-4211-BE84-4FD0FE0F1464}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="430268544"/>
+        <c:axId val="430268872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="430268544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430268872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430268872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Akurasi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430268544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tanggapan Mahasiswa Terhadap Layanan Kemahasiswaan Telkom University Dengan Menggunakan KNN</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perentase KNN'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Perentase KNN'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Asrama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kesehatan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asuransi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beasiswa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kegiatan Mahasiswa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perentase KNN'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4AF-4CD0-B528-9E993773ED20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perentase KNN'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negatif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Perentase KNN'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Asrama</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kesehatan</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asuransi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beasiswa</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kegiatan Mahasiswa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perentase KNN'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.222</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4AF-4CD0-B528-9E993773ED20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="430258704"/>
+        <c:axId val="430254768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="430258704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430254768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430254768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Akurasi</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430258704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2719,6 +3990,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4224,6 +5575,944 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4331,6 +6620,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B728263-0D1A-487D-BEFE-59A68E1FE2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5CA11C-0BA8-49DF-A109-CDFDCCEFE9D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44FB7E5-0289-484D-888E-95D15CFC1D6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5062,10 +7433,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A679E5AD-F9D6-46E7-8895-48DD46EBCFCB}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5278,6 +7649,23 @@
       <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>0.83460000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5366,4 +7754,168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F39A43-B308-4AC2-A30A-BF8B0779CCB2}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.39700000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.6734</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.3266</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.77339999999999998</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.2266</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.78420000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.21579999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8E1F02-28E8-4317-9979-53C5CC3A33CE}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.748</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.252</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Hasil Pengujian/Hasil Pengujian Fix.xlsx
+++ b/Hasil Pengujian/Hasil Pengujian Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ekstensi\Tugas-Akhir\Hasil Pengujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C121F86A-C81A-4FA1-8003-2CB693A2DB9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DBE8CD52-A214-4C6F-A311-401ECD6C9462}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7380" activeTab="4" xr2:uid="{AD2C299A-F8F4-4A0C-B103-4AC92E4E8D8E}"/>
   </bookViews>
@@ -7761,7 +7761,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7843,7 +7843,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B2" sqref="B2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
